--- a/medicine/Enfance/Gaïg/Gaïg.xlsx
+++ b/medicine/Enfance/Gaïg/Gaïg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ga%C3%AFg</t>
+          <t>Gaïg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gaïg est une série de dix romans fantasy racontant les aventures de Gaïg — une héroïne mi-fille, mi-sirène — et écrite par Dynah Psyché.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ga%C3%AFg</t>
+          <t>Gaïg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le début de l'histoire se déroule au pays de N'Dé, dans un petit village au bord de la mer d'Okan. Gaïg est une jeune fille élevée par Garin et Jéhanne, le couple qui l'a recueillie bébé. Mais ses parents adoptifs la maltraitent, et c'est à elle qu'incombe les corvées de ses « frères et sœurs » : Ermeline, Colin, Féodor et Victoric. Et les autres enfants du village ne sont pas en reste pour lancer des pierres à la jeune héroïne qu'ils trouvent « différente ». En effet, Gaïg, outre son apparence physique étrange, est capable de rester un temps considérable — inhumain — la tête sous l'eau. Sa seule amie reste la naine Nihassah, au surnom de Zoclette, que Gaïg, après la chute de la caverne de son amie, devra sauver en demandant de l'aide au peuple des nains, tournant ainsi le dos au peuple des humains pour rencontrer des créatures fantastiques et mythiques et revenir à ses véritables origines.
 L'histoire est basée sur une prophétie des nains, qui dit que la fille de l'eau et de la terre réunira le peuple des nains et celui des sirènes. Gaïg est reconnue, durant toute la série, comme étant la personne de la prophétie, mais c'est un détail qu'elle n'apprendra qu'après avoir accompli son destin.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ga%C3%AFg</t>
+          <t>Gaïg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,18 +558,20 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La Prophétie des Nains[1], parution en octobre 2007.  (ISBN 978-2-89435-353-0)
-La Forêt de Nsaï[2], parution en octobre 2007.  (ISBN 978-2-89435-354-7)
-L’Appel de la Mer[3], parution en octobre 2007.  (ISBN 978-2-89435-355-4)
-L'Île des Disparus[4], parution en février 2008.  (ISBN 978-2-89435-370-7)
-La Lignée Sacrée[5], parution en septembre 2008.  (ISBN 978-2-89435-373-8)
-Les Bandits des Mers[6], parution en février 2009.  (ISBN 978-2-89435-411-7)
-La Vague d'Argent[7], parution en septembre 2009.  (ISBN 978-2-89435-429-2)
-L'Archipel de Faïmano[8], parution en février 2010.  (ISBN 978-2-89435-449-0)
-Le Jardin d'Afo[9], parution en septembre 2010.  (ISBN 978-2-89435-470-4)
-La Matriarche[10], parution en février 2011.  (ISBN 978-2-89435-515-2)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Prophétie des Nains, parution en octobre 2007.  (ISBN 978-2-89435-353-0)
+La Forêt de Nsaï, parution en octobre 2007.  (ISBN 978-2-89435-354-7)
+L’Appel de la Mer, parution en octobre 2007.  (ISBN 978-2-89435-355-4)
+L'Île des Disparus, parution en février 2008.  (ISBN 978-2-89435-370-7)
+La Lignée Sacrée, parution en septembre 2008.  (ISBN 978-2-89435-373-8)
+Les Bandits des Mers, parution en février 2009.  (ISBN 978-2-89435-411-7)
+La Vague d'Argent, parution en septembre 2009.  (ISBN 978-2-89435-429-2)
+L'Archipel de Faïmano, parution en février 2010.  (ISBN 978-2-89435-449-0)
+Le Jardin d'Afo, parution en septembre 2010.  (ISBN 978-2-89435-470-4)
+La Matriarche, parution en février 2011.  (ISBN 978-2-89435-515-2)</t>
         </is>
       </c>
     </row>
